--- a/HistaffWebApp/ReportTemplates/Attendance/Import/AT_IMPORT_REGISTER_CO.xlsx
+++ b/HistaffWebApp/ReportTemplates/Attendance/Import/AT_IMPORT_REGISTER_CO.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TNG\HistaffWebApp\ReportTemplates\Attendance\Import\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SOURCE_TNG\HistaffWebApp\ReportTemplates\Attendance\Import\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7020"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7020" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
-    <sheet name="Loainghi" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="Loainghi" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="daucacuoica">IF(Data!$I1=0,Loainghi!$F$4,Loainghi!$F$2:$F$4)</definedName>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
   <si>
     <t>Chức danh</t>
   </si>
@@ -106,39 +106,6 @@
     <t>ID loại nghỉ</t>
   </si>
   <si>
-    <t>Nghỉ không hưởng lương</t>
-  </si>
-  <si>
-    <t>Nghỉ tang</t>
-  </si>
-  <si>
-    <t>Nghỉ kết hôn</t>
-  </si>
-  <si>
-    <t>Lao động nam nghỉ khi vợ sinh</t>
-  </si>
-  <si>
-    <t>Nghỉ đi công tác</t>
-  </si>
-  <si>
-    <t>Nghỉ bù</t>
-  </si>
-  <si>
-    <t>Nghỉ phép năm</t>
-  </si>
-  <si>
-    <t>Nghỉ ốm</t>
-  </si>
-  <si>
-    <t>Nghỉ thai sản</t>
-  </si>
-  <si>
-    <t>Ngày nghỉ Lễ, Tết</t>
-  </si>
-  <si>
-    <t>Ngày nghỉ hàng tuần</t>
-  </si>
-  <si>
     <t>Bắt buộc nhập dạng ngày tháng</t>
   </si>
   <si>
@@ -182,9 +149,6 @@
     <t>Có đăng ký theo ca</t>
   </si>
   <si>
-    <t>Ngày công làm việc</t>
-  </si>
-  <si>
     <t>Cả ngày</t>
   </si>
   <si>
@@ -213,6 +177,15 @@
   </si>
   <si>
     <t>MANUAL_ID</t>
+  </si>
+  <si>
+    <t>&amp;=Manual.NAME</t>
+  </si>
+  <si>
+    <t>&amp;=Manual.ID</t>
+  </si>
+  <si>
+    <t>&amp;=Manual.IS_REG_SHIFT</t>
   </si>
 </sst>
 </file>
@@ -1207,7 +1180,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N507"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="6" ySplit="7" topLeftCell="G8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
@@ -1290,23 +1263,23 @@
     </row>
     <row r="5" spans="1:14" s="22" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="38" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="G5" s="23" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="H5" s="25"/>
       <c r="I5" s="25"/>
       <c r="J5" s="23" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="K5" s="23" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="L5" s="25"/>
       <c r="M5" s="25"/>
       <c r="N5" s="22" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:14" s="16" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1335,19 +1308,19 @@
         <v>14</v>
       </c>
       <c r="I6" s="26" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="J6" s="19" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="K6" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="L6" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="M6" s="26" t="s">
         <v>27</v>
-      </c>
-      <c r="L6" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="M6" s="26" t="s">
-        <v>38</v>
       </c>
       <c r="N6" s="14" t="s">
         <v>12</v>
@@ -1367,32 +1340,32 @@
         <v>3</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="H7" s="27" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="I7" s="27"/>
       <c r="J7" s="17" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="K7" s="36" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="L7" s="27" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="M7" s="27" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="N7" s="17" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -15413,8 +15386,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15434,151 +15407,97 @@
         <v>4</v>
       </c>
       <c r="C1" s="34" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="35">
-        <v>25</v>
-      </c>
-      <c r="C2" s="35"/>
+      <c r="C2" s="35" t="s">
+        <v>41</v>
+      </c>
       <c r="F2" s="21" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="G2" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="35">
-        <v>3</v>
-      </c>
-      <c r="C3" s="35">
-        <v>0</v>
-      </c>
+      <c r="A3" s="35"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
       <c r="F3" s="21" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="G3" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="35">
-        <v>33</v>
-      </c>
-      <c r="C4" s="35">
-        <v>0</v>
-      </c>
+      <c r="A4" s="35"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
       <c r="F4" s="21" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G4" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="35">
-        <v>5</v>
-      </c>
-      <c r="C5" s="35">
-        <v>-1</v>
-      </c>
+      <c r="A5" s="35"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="35">
-        <v>6</v>
-      </c>
-      <c r="C6" s="35">
-        <v>-1</v>
-      </c>
+      <c r="A6" s="35"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="35">
-        <v>7</v>
-      </c>
+      <c r="A7" s="35"/>
+      <c r="B7" s="35"/>
       <c r="C7" s="35"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="35">
-        <v>18</v>
-      </c>
+      <c r="A8" s="35"/>
+      <c r="B8" s="35"/>
       <c r="C8" s="35"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="35">
-        <v>19</v>
-      </c>
+      <c r="A9" s="35"/>
+      <c r="B9" s="35"/>
       <c r="C9" s="35"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="35">
-        <v>20</v>
-      </c>
-      <c r="C10" s="35">
-        <v>0</v>
-      </c>
+      <c r="A10" s="35"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="35">
-        <v>23</v>
-      </c>
+      <c r="A11" s="35"/>
+      <c r="B11" s="35"/>
       <c r="C11" s="35"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="35">
-        <v>22</v>
-      </c>
-      <c r="C12" s="35">
-        <v>-1</v>
-      </c>
+      <c r="A12" s="35"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="35">
-        <v>24</v>
-      </c>
+      <c r="A13" s="35"/>
+      <c r="B13" s="35"/>
       <c r="C13" s="35"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
